--- a/data/trans_bre/P16-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16-Clase-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,23; 18,79</t>
+          <t>4,62; 18,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,54; 18,74</t>
+          <t>4,43; 20,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 10,03</t>
+          <t>-4,84; 10,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,98; 8,83</t>
+          <t>-2,92; 9,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,18; 47,15</t>
+          <t>10,3; 46,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,28; 40,43</t>
+          <t>8,16; 43,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 20,05</t>
+          <t>-8,83; 21,16</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 16,82</t>
+          <t>-4,81; 18,69</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,44; 21,03</t>
+          <t>5,77; 20,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,16; 21,01</t>
+          <t>5,69; 21,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 14,33</t>
+          <t>-1,1; 13,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 10,15</t>
+          <t>-2,77; 10,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,64; 59,96</t>
+          <t>12,58; 56,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,22; 45,52</t>
+          <t>10,31; 46,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 30,47</t>
+          <t>-2,07; 29,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 19,41</t>
+          <t>-4,89; 20,56</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 21,87</t>
+          <t>4,38; 22,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,78; 19,3</t>
+          <t>3,93; 18,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,48; 22,21</t>
+          <t>5,79; 22,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,2; 62,1</t>
+          <t>12,34; 60,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,9; 56,6</t>
+          <t>10,17; 56,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,99; 36,63</t>
+          <t>6,92; 34,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,51; 41,9</t>
+          <t>9,51; 42,79</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,67; 475,48</t>
+          <t>20,92; 444,39</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,52; 13,14</t>
+          <t>4,48; 13,23</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,02; 19,88</t>
+          <t>10,35; 19,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,8; 10,71</t>
+          <t>1,92; 10,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,18; 30,24</t>
+          <t>6,51; 30,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>7,8; 30,3</t>
+          <t>9,48; 30,35</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,54; 39,61</t>
+          <t>19,08; 38,68</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,29; 21,7</t>
+          <t>3,49; 21,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,98; 58,06</t>
+          <t>11,45; 55,93</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,63; 27,17</t>
+          <t>13,72; 27,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>20,08; 30,99</t>
+          <t>19,43; 30,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,52; 26,59</t>
+          <t>16,7; 26,93</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 24,23</t>
+          <t>6,46; 24,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,59; 72,71</t>
+          <t>30,5; 74,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>36,79; 66,1</t>
+          <t>35,33; 65,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>30,63; 56,73</t>
+          <t>30,91; 57,03</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>10,2; 46,1</t>
+          <t>11,78; 46,04</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>38,93; 49,54</t>
+          <t>39,42; 49,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>36,41; 49,36</t>
+          <t>36,43; 49,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>39,39; 51,01</t>
+          <t>39,26; 51,41</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>26,73; 45,46</t>
+          <t>24,72; 45,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>166,91; 332,99</t>
+          <t>174,15; 337,61</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>100,2; 194,25</t>
+          <t>101,43; 196,39</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>133,72; 259,82</t>
+          <t>132,39; 259,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>73,7; 242,87</t>
+          <t>64,9; 241,57</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,49; 20,38</t>
+          <t>15,43; 20,7</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,14; 22,13</t>
+          <t>17,7; 22,3</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,42; 17,22</t>
+          <t>12,6; 17,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,75; 28,59</t>
+          <t>11,0; 30,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>37,22; 52,21</t>
+          <t>36,99; 52,82</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>33,0; 45,08</t>
+          <t>34,21; 45,56</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,37; 35,68</t>
+          <t>24,7; 35,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>20,46; 72,09</t>
+          <t>20,85; 80,17</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P16-Clase-trans_bre.xlsx
@@ -1110,7 +1110,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
